--- a/thesis_model_comparison.xlsx
+++ b/thesis_model_comparison.xlsx
@@ -88,7 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -149,13 +149,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -480,7 +480,7 @@
     <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -520,7 +520,7 @@
         <v>180.832</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0.225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -560,7 +560,7 @@
         <v>38.346</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -600,7 +600,7 @@
         <v>36.531</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -620,7 +620,7 @@
         <v>32.277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
         <v>-0.817</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -680,7 +680,7 @@
         <v>6197</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -700,7 +700,7 @@
         <v>5937</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
